--- a/Outputs/Gas Transfer Velocity/Riveros-Iregui Method.xlsx
+++ b/Outputs/Gas Transfer Velocity/Riveros-Iregui Method.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C1F9D5-1E79-4036-8CED-A3BBCBF76B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D83D617-3A44-4C67-8A0F-B75AA41F9AB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{272B3175-AD7C-4DD9-B3AF-E0B1A285AB3A}"/>
   </bookViews>
@@ -25,23 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>Flux</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Syn</t>
   </si>
   <si>
-    <t>pCO2 aq</t>
-  </si>
-  <si>
-    <t>pCO2 air</t>
-  </si>
-  <si>
-    <t>Henrys Constant</t>
-  </si>
-  <si>
     <t>Syn 1</t>
   </si>
   <si>
@@ -151,19 +139,77 @@
   </si>
   <si>
     <t>Syn 35</t>
+  </si>
+  <si>
+    <t>Vaisala</t>
+  </si>
+  <si>
+    <r>
+      <t>Flux (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μmoles/m^2/s</t>
+    </r>
+  </si>
+  <si>
+    <t>pCO2 aq (PPM)</t>
+  </si>
+  <si>
+    <t>Henry's Constant</t>
+  </si>
+  <si>
+    <t>Discharge</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pressure (atm)</t>
+  </si>
+  <si>
+    <t>pCO2 air (PPM)</t>
+  </si>
+  <si>
+    <r>
+      <t>Flux (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>μmoles/m^2/s)</t>
+    </r>
+  </si>
+  <si>
+    <t>Area (m^2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -502,216 +548,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194574C9-BD0E-4B22-802C-1B909ADCF057}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>450</v>
+      </c>
+      <c r="G2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>440</v>
+      </c>
+      <c r="G3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>470</v>
+      </c>
+      <c r="G4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>490</v>
+      </c>
+      <c r="G5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.36</v>
+      </c>
+      <c r="F6">
+        <v>510</v>
+      </c>
+      <c r="G6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>470</v>
+      </c>
+      <c r="G7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>0.62</v>
+      </c>
+      <c r="F9">
+        <v>530</v>
+      </c>
+      <c r="G9">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="F10">
+        <v>520</v>
+      </c>
+      <c r="G10">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>480</v>
+      </c>
+      <c r="G11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C12">
+        <v>0.93</v>
+      </c>
+      <c r="F12">
+        <v>510</v>
+      </c>
+      <c r="G12">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="F13">
+        <v>550</v>
+      </c>
+      <c r="G13">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="F14">
+        <v>490</v>
+      </c>
+      <c r="G14">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.1525</v>
+      </c>
+      <c r="F15">
+        <v>540</v>
+      </c>
+      <c r="G15">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="F16">
+        <v>510</v>
+      </c>
+      <c r="G16">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="F17">
+        <v>470</v>
+      </c>
+      <c r="G17">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="F18">
+        <v>430</v>
+      </c>
+      <c r="G18">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="F19">
+        <v>580</v>
+      </c>
+      <c r="G19">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="F20">
+        <v>850</v>
+      </c>
+      <c r="G20">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>4.88</v>
+      </c>
+      <c r="F21">
+        <v>990</v>
+      </c>
+      <c r="G21">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="F22">
+        <v>930</v>
+      </c>
+      <c r="G22">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="F23">
+        <v>1150</v>
+      </c>
+      <c r="G23">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>4.6574999999999998</v>
+      </c>
+      <c r="F24">
+        <v>1270</v>
+      </c>
+      <c r="G24">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="F25">
+        <v>1320</v>
+      </c>
+      <c r="G25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="F26">
+        <v>1150</v>
+      </c>
+      <c r="G26">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="F27">
+        <v>1210</v>
+      </c>
+      <c r="G27">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="F28">
+        <v>1470</v>
+      </c>
+      <c r="G28">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="F29">
+        <v>1350</v>
+      </c>
+      <c r="G29">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="F30">
+        <v>1560</v>
+      </c>
+      <c r="G30">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="F31">
+        <v>1450</v>
+      </c>
+      <c r="G31">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="F32">
+        <v>1420</v>
+      </c>
+      <c r="G32">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="F33">
+        <v>1470</v>
+      </c>
+      <c r="G33">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="F34">
+        <v>1510</v>
+      </c>
+      <c r="G34">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="F35">
+        <v>1370</v>
+      </c>
+      <c r="G35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>41</v>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>3.35</v>
+      </c>
+      <c r="F36">
+        <v>1480</v>
+      </c>
+      <c r="G36">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
 </worksheet>
 </file>